--- a/media/temp/1/annual_pr_1_1.xlsx
+++ b/media/temp/1/annual_pr_1_1.xlsx
@@ -586,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
@@ -649,7 +649,7 @@
     <row r="4" ht="17.35" customHeight="1" s="9">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>За период с 21.05.2023 по 07.06.2023 г.</t>
+          <t>За период с 01.05.2023 по 31.05.2023 г.</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="9" ht="45" customHeight="1" s="9">
       <c r="A9" s="20" t="inlineStr">
         <is>
-          <t>ТРАВМА N2</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -851,29 +851,41 @@
         </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>619</v>
+        <v>768</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>8.48</v>
+        <v>13.47</v>
       </c>
       <c r="F9" s="22" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>1.37</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H9" s="22" t="n">
-        <v>11</v>
-      </c>
-      <c r="I9" s="22" t="n"/>
-      <c r="J9" s="22" t="n"/>
-      <c r="K9" s="22" t="n"/>
-      <c r="L9" s="22" t="n"/>
-      <c r="M9" s="22" t="n"/>
-      <c r="N9" s="22" t="n"/>
+        <v>14.92</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="22" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K9" s="22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="22" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>25.5</v>
+      </c>
       <c r="O9" s="22" t="n"/>
       <c r="P9" s="22" t="n"/>
       <c r="Q9" s="22" t="n"/>
@@ -886,29 +898,41 @@
         </is>
       </c>
       <c r="C10" s="22" t="n">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="D10" s="22" t="n">
-        <v>8</v>
+        <v>1436</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F10" s="22" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>100</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="H10" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" s="22" t="n"/>
-      <c r="J10" s="22" t="n"/>
-      <c r="K10" s="22" t="n"/>
-      <c r="L10" s="22" t="n"/>
-      <c r="M10" s="22" t="n"/>
-      <c r="N10" s="22" t="n"/>
+        <v>9.75</v>
+      </c>
+      <c r="I10" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="22" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K10" s="22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L10" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="22" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>6.4</v>
+      </c>
       <c r="O10" s="22" t="n"/>
       <c r="P10" s="22" t="n"/>
       <c r="Q10" s="22" t="n"/>
@@ -922,107 +946,120 @@
       </c>
       <c r="B11" s="25" t="n"/>
       <c r="C11" s="22" t="n">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="D11" s="22" t="n">
-        <v>627</v>
+        <v>2204</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>8.470000000000001</v>
+        <v>10.75</v>
       </c>
       <c r="F11" s="22" t="n">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>2.7</v>
+        <v>95.12</v>
       </c>
       <c r="H11" s="22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I11" s="22" t="n"/>
-      <c r="J11" s="22" t="n"/>
-      <c r="K11" s="22" t="n"/>
-      <c r="L11" s="22" t="n"/>
-      <c r="M11" s="22" t="n"/>
-      <c r="N11" s="22" t="n"/>
+        <v>11.02</v>
+      </c>
+      <c r="I11" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" s="22" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K11" s="22" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="L11" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" s="22" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>4.56</v>
+      </c>
       <c r="O11" s="22" t="n"/>
       <c r="P11" s="22" t="n"/>
       <c r="Q11" s="22" t="n"/>
     </row>
     <row r="12" ht="45" customHeight="1" s="9">
-      <c r="A12" s="21" t="inlineStr">
-        <is>
-          <t>ГИНЕКОЛОГИЧЕСКОЕ</t>
+      <c r="A12" s="20" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>гинекологические</t>
+          <t>хирургические (хирургия)</t>
         </is>
       </c>
       <c r="C12" s="22" t="n">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="D12" s="22" t="n">
-        <v>826</v>
+        <v>1521</v>
       </c>
       <c r="E12" s="22" t="n">
-        <v>4.46</v>
+        <v>5.37</v>
       </c>
       <c r="F12" s="22" t="n">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="G12" s="22" t="n">
-        <v>68.11</v>
+        <v>92.58</v>
       </c>
       <c r="H12" s="22" t="n">
-        <v>4.74</v>
+        <v>5.3</v>
       </c>
       <c r="I12" s="22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J12" s="22" t="n">
-        <v>0.54</v>
+        <v>2.83</v>
       </c>
       <c r="K12" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" s="22" t="n"/>
-      <c r="M12" s="22" t="n"/>
-      <c r="N12" s="22" t="n"/>
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L12" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" s="22" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="N12" s="22" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="O12" s="22" t="n"/>
       <c r="P12" s="22" t="n"/>
       <c r="Q12" s="22" t="n"/>
       <c r="R12" s="23" t="n"/>
     </row>
     <row r="13" ht="45" customHeight="1" s="9">
-      <c r="A13" s="21" t="inlineStr">
-        <is>
-          <t>ЧЛХ И ПЛАСТИЧ.ХИР-ИИ</t>
-        </is>
-      </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>челюстно-лицевой хирургии</t>
+          <t>торакальной хирургии</t>
         </is>
       </c>
       <c r="C13" s="22" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D13" s="22" t="n">
-        <v>291</v>
+        <v>379</v>
       </c>
       <c r="E13" s="22" t="n">
-        <v>4.16</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F13" s="22" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G13" s="22" t="n">
-        <v>28.57</v>
+        <v>100</v>
       </c>
       <c r="H13" s="22" t="n">
-        <v>5.85</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I13" s="22" t="n"/>
       <c r="J13" s="22" t="n"/>
@@ -1035,913 +1072,871 @@
       <c r="Q13" s="22" t="n"/>
       <c r="R13" s="23" t="n"/>
     </row>
-    <row r="14" ht="45" customHeight="1" s="9">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t>ТРАВМА N3</t>
-        </is>
-      </c>
-      <c r="B14" s="21" t="inlineStr">
-        <is>
-          <t>травматологические</t>
-        </is>
-      </c>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="24" t="inlineStr">
+        <is>
+          <t>итого по отделению</t>
+        </is>
+      </c>
+      <c r="B14" s="25" t="n"/>
       <c r="C14" s="22" t="n">
-        <v>59</v>
+        <v>322</v>
       </c>
       <c r="D14" s="22" t="n">
-        <v>529</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="22" t="n">
-        <v>8.970000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="F14" s="22" t="n">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="G14" s="22" t="n">
-        <v>100</v>
+        <v>93.48</v>
       </c>
       <c r="H14" s="22" t="n">
-        <v>8.970000000000001</v>
+        <v>5.87</v>
       </c>
       <c r="I14" s="22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" s="22" t="n">
-        <v>6.78</v>
+        <v>2.48</v>
       </c>
       <c r="K14" s="22" t="n">
-        <v>4.75</v>
+        <v>1.05</v>
       </c>
       <c r="L14" s="22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M14" s="22" t="n">
-        <v>6.78</v>
+        <v>2.48</v>
       </c>
       <c r="N14" s="22" t="n">
-        <v>4.75</v>
+        <v>1.05</v>
       </c>
       <c r="O14" s="22" t="n"/>
       <c r="P14" s="22" t="n"/>
       <c r="Q14" s="22" t="n"/>
-      <c r="R14" s="23" t="n"/>
     </row>
     <row r="15" ht="45" customHeight="1" s="9">
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>НЕЙРОХИРУРГИЯ</t>
+        </is>
+      </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>ортопедические</t>
+          <t>нейрохирургические</t>
         </is>
       </c>
       <c r="C15" s="22" t="n">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="D15" s="22" t="n">
-        <v>282</v>
+        <v>1544</v>
       </c>
       <c r="E15" s="22" t="n">
-        <v>10.44</v>
+        <v>11.7</v>
       </c>
       <c r="F15" s="22" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="G15" s="22" t="n">
-        <v>81.48</v>
+        <v>90.91</v>
       </c>
       <c r="H15" s="22" t="n">
-        <v>11.59</v>
+        <v>12.03</v>
       </c>
       <c r="I15" s="22" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J15" s="22" t="n">
-        <v>7.41</v>
+        <v>12.88</v>
       </c>
       <c r="K15" s="22" t="n">
-        <v>25.5</v>
+        <v>18.35</v>
       </c>
       <c r="L15" s="22" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M15" s="22" t="n">
-        <v>7.41</v>
+        <v>12.88</v>
       </c>
       <c r="N15" s="22" t="n">
-        <v>25.5</v>
+        <v>18.35</v>
       </c>
       <c r="O15" s="22" t="n"/>
       <c r="P15" s="22" t="n"/>
       <c r="Q15" s="22" t="n"/>
       <c r="R15" s="23" t="n"/>
     </row>
-    <row r="16" ht="20" customHeight="1" s="9">
-      <c r="A16" s="24" t="inlineStr">
-        <is>
-          <t>итого по отделению</t>
-        </is>
-      </c>
-      <c r="B16" s="25" t="n"/>
+    <row r="16" ht="45" customHeight="1" s="9">
+      <c r="A16" s="21" t="inlineStr">
+        <is>
+          <t>ГИНЕКОЛОГИЧЕСКОЕ</t>
+        </is>
+      </c>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>гинекологические</t>
+        </is>
+      </c>
       <c r="C16" s="22" t="n">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c r="D16" s="22" t="n">
-        <v>811</v>
+        <v>1394</v>
       </c>
       <c r="E16" s="22" t="n">
-        <v>9.43</v>
+        <v>4.66</v>
       </c>
       <c r="F16" s="22" t="n">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="G16" s="22" t="n">
-        <v>94.19</v>
+        <v>75.25</v>
       </c>
       <c r="H16" s="22" t="n">
-        <v>9.68</v>
+        <v>4.91</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="22" t="n">
-        <v>6.98</v>
+        <v>0.33</v>
       </c>
       <c r="K16" s="22" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="L16" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="M16" s="22" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="N16" s="22" t="n">
-        <v>5.04</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L16" s="22" t="n"/>
+      <c r="M16" s="22" t="n"/>
+      <c r="N16" s="22" t="n"/>
       <c r="O16" s="22" t="n"/>
       <c r="P16" s="22" t="n"/>
       <c r="Q16" s="22" t="n"/>
+      <c r="R16" s="23" t="n"/>
     </row>
     <row r="17" ht="45" customHeight="1" s="9">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>УРОЛОГИЧЕСКОЕ</t>
+      <c r="A17" s="20" t="inlineStr">
+        <is>
+          <t>ТРАВМА N2</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>урологические</t>
+          <t>ортопедические</t>
         </is>
       </c>
       <c r="C17" s="22" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D17" s="22" t="n">
-        <v>855</v>
+        <v>1346</v>
       </c>
       <c r="E17" s="22" t="n">
-        <v>5.9</v>
+        <v>10.35</v>
       </c>
       <c r="F17" s="22" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="G17" s="22" t="n">
-        <v>78.62</v>
+        <v>0.77</v>
       </c>
       <c r="H17" s="22" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="I17" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="K17" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="L17" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" s="22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N17" s="22" t="n">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I17" s="22" t="n"/>
+      <c r="J17" s="22" t="n"/>
+      <c r="K17" s="22" t="n"/>
+      <c r="L17" s="22" t="n"/>
+      <c r="M17" s="22" t="n"/>
+      <c r="N17" s="22" t="n"/>
       <c r="O17" s="22" t="n"/>
       <c r="P17" s="22" t="n"/>
       <c r="Q17" s="22" t="n"/>
       <c r="R17" s="23" t="n"/>
     </row>
     <row r="18" ht="45" customHeight="1" s="9">
-      <c r="A18" s="20" t="inlineStr">
-        <is>
-          <t>ЭНДОКРИНОЛОГИЧЕСКОЕ</t>
-        </is>
-      </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>эндокринологические</t>
+          <t>травматологические</t>
         </is>
       </c>
       <c r="C18" s="22" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D18" s="22" t="n">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="E18" s="22" t="n">
-        <v>6.79</v>
+        <v>25.5</v>
       </c>
       <c r="F18" s="22" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G18" s="22" t="n">
-        <v>42.11</v>
+        <v>100</v>
       </c>
       <c r="H18" s="22" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="I18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K18" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="L18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N18" s="22" t="n">
-        <v>19</v>
-      </c>
+        <v>25.5</v>
+      </c>
+      <c r="I18" s="22" t="n"/>
+      <c r="J18" s="22" t="n"/>
+      <c r="K18" s="22" t="n"/>
+      <c r="L18" s="22" t="n"/>
+      <c r="M18" s="22" t="n"/>
+      <c r="N18" s="22" t="n"/>
       <c r="O18" s="22" t="n"/>
       <c r="P18" s="22" t="n"/>
       <c r="Q18" s="22" t="n"/>
       <c r="R18" s="23" t="n"/>
     </row>
-    <row r="19" ht="45" customHeight="1" s="9">
-      <c r="B19" s="21" t="inlineStr">
-        <is>
-          <t>гастроэнтерологические</t>
-        </is>
-      </c>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="24" t="inlineStr">
+        <is>
+          <t>итого по отделению</t>
+        </is>
+      </c>
+      <c r="B19" s="25" t="n"/>
       <c r="C19" s="22" t="n">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>67</v>
+        <v>1397</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>13.4</v>
+        <v>10.58</v>
       </c>
       <c r="F19" s="22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>100</v>
+        <v>2.27</v>
       </c>
       <c r="H19" s="22" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="I19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="K19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="N19" s="22" t="n">
-        <v>1</v>
-      </c>
+        <v>20.67</v>
+      </c>
+      <c r="I19" s="22" t="n"/>
+      <c r="J19" s="22" t="n"/>
+      <c r="K19" s="22" t="n"/>
+      <c r="L19" s="22" t="n"/>
+      <c r="M19" s="22" t="n"/>
+      <c r="N19" s="22" t="n"/>
       <c r="O19" s="22" t="n"/>
       <c r="P19" s="22" t="n"/>
       <c r="Q19" s="22" t="n"/>
-      <c r="R19" s="23" t="n"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" s="9">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>итого по отделению</t>
-        </is>
-      </c>
-      <c r="B20" s="25" t="n"/>
+    </row>
+    <row r="20" ht="45" customHeight="1" s="9">
+      <c r="A20" s="20" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЧЕСКОЕ N2(гн)</t>
+        </is>
+      </c>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>гнойные хирургические</t>
+        </is>
+      </c>
       <c r="C20" s="22" t="n">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="D20" s="22" t="n">
-        <v>325</v>
+        <v>1446</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>7.56</v>
+        <v>12.91</v>
       </c>
       <c r="F20" s="22" t="n">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>48.84</v>
+        <v>94.64</v>
       </c>
       <c r="H20" s="22" t="n">
-        <v>9.19</v>
+        <v>13.12</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J20" s="22" t="n">
-        <v>4.65</v>
+        <v>6.25</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>10</v>
+        <v>15.14</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>4.65</v>
+        <v>6.25</v>
       </c>
       <c r="N20" s="22" t="n">
-        <v>10</v>
+        <v>15.14</v>
       </c>
       <c r="O20" s="22" t="n"/>
       <c r="P20" s="22" t="n"/>
       <c r="Q20" s="22" t="n"/>
+      <c r="R20" s="23" t="n"/>
     </row>
     <row r="21" ht="45" customHeight="1" s="9">
-      <c r="A21" s="21" t="inlineStr">
-        <is>
-          <t>ОФТАЛЬМОЛОГИЧЕСКОЕ</t>
-        </is>
-      </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>офтальмологические</t>
+          <t>хирургические (хирургия)</t>
         </is>
       </c>
       <c r="C21" s="22" t="n">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="D21" s="22" t="n">
-        <v>759</v>
+        <v>63</v>
       </c>
       <c r="E21" s="22" t="n">
-        <v>5.79</v>
+        <v>15.75</v>
       </c>
       <c r="F21" s="22" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G21" s="22" t="n">
-        <v>36.64</v>
+        <v>100</v>
       </c>
       <c r="H21" s="22" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="I21" s="22" t="n"/>
-      <c r="J21" s="22" t="n"/>
-      <c r="K21" s="22" t="n"/>
-      <c r="L21" s="22" t="n"/>
-      <c r="M21" s="22" t="n"/>
-      <c r="N21" s="22" t="n"/>
+        <v>15.75</v>
+      </c>
+      <c r="I21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="L21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="N21" s="22" t="n">
+        <v>13</v>
+      </c>
       <c r="O21" s="22" t="n"/>
       <c r="P21" s="22" t="n"/>
       <c r="Q21" s="22" t="n"/>
       <c r="R21" s="23" t="n"/>
     </row>
-    <row r="22" ht="45" customHeight="1" s="9">
-      <c r="A22" s="20" t="inlineStr">
-        <is>
-          <t>МЕД.РЕАБИЛИТАЦИЯ</t>
-        </is>
-      </c>
-      <c r="B22" s="21" t="inlineStr">
-        <is>
-          <t>реабилитационные для больных с заболеваниями ода</t>
-        </is>
-      </c>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="24" t="inlineStr">
+        <is>
+          <t>итого по отделению</t>
+        </is>
+      </c>
+      <c r="B22" s="25" t="n"/>
       <c r="C22" s="22" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D22" s="22" t="n">
-        <v>91</v>
+        <v>1509</v>
       </c>
       <c r="E22" s="22" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="F22" s="22" t="n"/>
-      <c r="G22" s="22" t="n"/>
-      <c r="H22" s="22" t="n"/>
-      <c r="I22" s="22" t="n"/>
-      <c r="J22" s="22" t="n"/>
-      <c r="K22" s="22" t="n"/>
-      <c r="L22" s="22" t="n"/>
-      <c r="M22" s="22" t="n"/>
-      <c r="N22" s="22" t="n"/>
+        <v>13.01</v>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>110</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>94.83</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" s="22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="L22" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" s="22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N22" s="22" t="n">
+        <v>3.52</v>
+      </c>
       <c r="O22" s="22" t="n"/>
       <c r="P22" s="22" t="n"/>
       <c r="Q22" s="22" t="n"/>
-      <c r="R22" s="23" t="n"/>
     </row>
     <row r="23" ht="45" customHeight="1" s="9">
+      <c r="A23" s="20" t="inlineStr">
+        <is>
+          <t>ЭНДОКРИНОЛОГИЧЕСКОЕ</t>
+        </is>
+      </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>реабилитационные для больных с заболеваниями цнс</t>
+          <t>эндокринологические</t>
         </is>
       </c>
       <c r="C23" s="22" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>129</v>
+        <v>546</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F23" s="22" t="n"/>
-      <c r="G23" s="22" t="n"/>
-      <c r="H23" s="22" t="n"/>
-      <c r="I23" s="22" t="n"/>
-      <c r="J23" s="22" t="n"/>
-      <c r="K23" s="22" t="n"/>
-      <c r="L23" s="22" t="n"/>
-      <c r="M23" s="22" t="n"/>
-      <c r="N23" s="22" t="n"/>
+        <v>7.38</v>
+      </c>
+      <c r="F23" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K23" s="22" t="n">
+        <v>19</v>
+      </c>
+      <c r="L23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>19</v>
+      </c>
       <c r="O23" s="22" t="n"/>
       <c r="P23" s="22" t="n"/>
       <c r="Q23" s="22" t="n"/>
       <c r="R23" s="23" t="n"/>
     </row>
-    <row r="24" ht="20" customHeight="1" s="9">
-      <c r="A24" s="24" t="inlineStr">
-        <is>
-          <t>итого по отделению</t>
-        </is>
-      </c>
-      <c r="B24" s="25" t="n"/>
+    <row r="24" ht="45" customHeight="1" s="9">
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>терапевтические</t>
+        </is>
+      </c>
       <c r="C24" s="22" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D24" s="22" t="n">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E24" s="22" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="F24" s="22" t="n"/>
-      <c r="G24" s="22" t="n"/>
-      <c r="H24" s="22" t="n"/>
-      <c r="I24" s="22" t="n"/>
-      <c r="J24" s="22" t="n"/>
-      <c r="K24" s="22" t="n"/>
-      <c r="L24" s="22" t="n"/>
-      <c r="M24" s="22" t="n"/>
-      <c r="N24" s="22" t="n"/>
+        <v>5.5</v>
+      </c>
+      <c r="F24" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" s="22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I24" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L24" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O24" s="22" t="n"/>
       <c r="P24" s="22" t="n"/>
       <c r="Q24" s="22" t="n"/>
+      <c r="R24" s="23" t="n"/>
     </row>
     <row r="25" ht="45" customHeight="1" s="9">
-      <c r="A25" s="20" t="inlineStr">
-        <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
-        </is>
-      </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>хирургические (хирургия)</t>
+          <t>гастроэнтерологические</t>
         </is>
       </c>
       <c r="C25" s="22" t="n">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="D25" s="22" t="n">
-        <v>690</v>
+        <v>86</v>
       </c>
       <c r="E25" s="22" t="n">
-        <v>4.73</v>
+        <v>12.29</v>
       </c>
       <c r="F25" s="22" t="n">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="G25" s="22" t="n">
-        <v>87.67</v>
+        <v>100</v>
       </c>
       <c r="H25" s="22" t="n">
-        <v>4.88</v>
+        <v>12.29</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="22" t="n">
-        <v>2.74</v>
+        <v>28.57</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>2.74</v>
+        <v>28.57</v>
       </c>
       <c r="N25" s="22" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O25" s="22" t="n"/>
       <c r="P25" s="22" t="n"/>
       <c r="Q25" s="22" t="n"/>
       <c r="R25" s="23" t="n"/>
     </row>
-    <row r="26" ht="45" customHeight="1" s="9">
-      <c r="B26" s="21" t="inlineStr">
-        <is>
-          <t>торакальной хирургии</t>
-        </is>
-      </c>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="24" t="inlineStr">
+        <is>
+          <t>итого по отделению</t>
+        </is>
+      </c>
+      <c r="B26" s="25" t="n"/>
       <c r="C26" s="22" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>128</v>
+        <v>654</v>
       </c>
       <c r="E26" s="22" t="n">
-        <v>6.74</v>
+        <v>7.69</v>
       </c>
       <c r="F26" s="22" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G26" s="22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H26" s="22" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="I26" s="22" t="n"/>
-      <c r="J26" s="22" t="n"/>
-      <c r="K26" s="22" t="n"/>
-      <c r="L26" s="22" t="n"/>
-      <c r="M26" s="22" t="n"/>
-      <c r="N26" s="22" t="n"/>
+        <v>8.75</v>
+      </c>
+      <c r="I26" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="22" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K26" s="22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L26" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" s="22" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>4.9</v>
+      </c>
       <c r="O26" s="22" t="n"/>
       <c r="P26" s="22" t="n"/>
       <c r="Q26" s="22" t="n"/>
-      <c r="R26" s="23" t="n"/>
-    </row>
-    <row r="27" ht="20" customHeight="1" s="9">
-      <c r="A27" s="24" t="inlineStr">
-        <is>
-          <t>итого по отделению</t>
-        </is>
-      </c>
-      <c r="B27" s="25" t="n"/>
+    </row>
+    <row r="27" ht="45" customHeight="1" s="9">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>ЧЛХ И ПЛАСТИЧ.ХИР-ИИ</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>челюстно-лицевой хирургии</t>
+        </is>
+      </c>
       <c r="C27" s="22" t="n">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="D27" s="22" t="n">
-        <v>818</v>
+        <v>600</v>
       </c>
       <c r="E27" s="22" t="n">
-        <v>4.96</v>
+        <v>5.26</v>
       </c>
       <c r="F27" s="22" t="n">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="G27" s="22" t="n">
-        <v>89.09</v>
+        <v>35.96</v>
       </c>
       <c r="H27" s="22" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="I27" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" s="22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K27" s="22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L27" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" s="22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="N27" s="22" t="n">
-        <v>1.38</v>
-      </c>
+        <v>7.85</v>
+      </c>
+      <c r="I27" s="22" t="n"/>
+      <c r="J27" s="22" t="n"/>
+      <c r="K27" s="22" t="n"/>
+      <c r="L27" s="22" t="n"/>
+      <c r="M27" s="22" t="n"/>
+      <c r="N27" s="22" t="n"/>
       <c r="O27" s="22" t="n"/>
       <c r="P27" s="22" t="n"/>
       <c r="Q27" s="22" t="n"/>
+      <c r="R27" s="23" t="n"/>
     </row>
     <row r="28" ht="45" customHeight="1" s="9">
-      <c r="A28" s="21" t="inlineStr">
-        <is>
-          <t>СОСУДИСТ.ХИР.И КАРД.</t>
+      <c r="A28" s="20" t="inlineStr">
+        <is>
+          <t>МЕД.РЕАБИЛИТАЦИЯ</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>сосудистой хирургии</t>
+          <t>реабилитационные для больных с заболеваниями цнс</t>
         </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D28" s="22" t="n">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F28" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="G28" s="22" t="n">
-        <v>37.25</v>
-      </c>
-      <c r="H28" s="22" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="I28" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" s="22" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K28" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L28" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" s="22" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="N28" s="22" t="n">
-        <v>2</v>
-      </c>
+        <v>15.38</v>
+      </c>
+      <c r="F28" s="22" t="n"/>
+      <c r="G28" s="22" t="n"/>
+      <c r="H28" s="22" t="n"/>
+      <c r="I28" s="22" t="n"/>
+      <c r="J28" s="22" t="n"/>
+      <c r="K28" s="22" t="n"/>
+      <c r="L28" s="22" t="n"/>
+      <c r="M28" s="22" t="n"/>
+      <c r="N28" s="22" t="n"/>
       <c r="O28" s="22" t="n"/>
       <c r="P28" s="22" t="n"/>
       <c r="Q28" s="22" t="n"/>
       <c r="R28" s="23" t="n"/>
     </row>
     <row r="29" ht="45" customHeight="1" s="9">
-      <c r="A29" s="21" t="inlineStr">
-        <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
-        </is>
-      </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>нейрохирургические</t>
+          <t>реабилитационные для больных с заболеваниями ода</t>
         </is>
       </c>
       <c r="C29" s="22" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D29" s="22" t="n">
-        <v>1093</v>
+        <v>183</v>
       </c>
       <c r="E29" s="22" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="F29" s="22" t="n">
-        <v>73</v>
-      </c>
-      <c r="G29" s="22" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="H29" s="22" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="I29" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" s="22" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="K29" s="22" t="n">
-        <v>31.78</v>
-      </c>
-      <c r="L29" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="M29" s="22" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="N29" s="22" t="n">
-        <v>31.78</v>
-      </c>
+        <v>15.25</v>
+      </c>
+      <c r="F29" s="22" t="n"/>
+      <c r="G29" s="22" t="n"/>
+      <c r="H29" s="22" t="n"/>
+      <c r="I29" s="22" t="n"/>
+      <c r="J29" s="22" t="n"/>
+      <c r="K29" s="22" t="n"/>
+      <c r="L29" s="22" t="n"/>
+      <c r="M29" s="22" t="n"/>
+      <c r="N29" s="22" t="n"/>
       <c r="O29" s="22" t="n"/>
       <c r="P29" s="22" t="n"/>
       <c r="Q29" s="22" t="n"/>
       <c r="R29" s="23" t="n"/>
     </row>
-    <row r="30" ht="45" customHeight="1" s="9">
-      <c r="A30" s="20" t="inlineStr">
-        <is>
-          <t>ХИРУРГИЧЕСКОЕ N2(гн)</t>
-        </is>
-      </c>
-      <c r="B30" s="21" t="inlineStr">
-        <is>
-          <t>гнойные хирургические</t>
-        </is>
-      </c>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="24" t="inlineStr">
+        <is>
+          <t>итого по отделению</t>
+        </is>
+      </c>
+      <c r="B30" s="25" t="n"/>
       <c r="C30" s="22" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D30" s="22" t="n">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="E30" s="22" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="F30" s="22" t="n">
-        <v>49</v>
-      </c>
-      <c r="G30" s="22" t="n">
-        <v>94.23</v>
-      </c>
-      <c r="H30" s="22" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="I30" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" s="22" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="K30" s="22" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="L30" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M30" s="22" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N30" s="22" t="n">
-        <v>16.25</v>
-      </c>
+        <v>15.34</v>
+      </c>
+      <c r="F30" s="22" t="n"/>
+      <c r="G30" s="22" t="n"/>
+      <c r="H30" s="22" t="n"/>
+      <c r="I30" s="22" t="n"/>
+      <c r="J30" s="22" t="n"/>
+      <c r="K30" s="22" t="n"/>
+      <c r="L30" s="22" t="n"/>
+      <c r="M30" s="22" t="n"/>
+      <c r="N30" s="22" t="n"/>
       <c r="O30" s="22" t="n"/>
       <c r="P30" s="22" t="n"/>
       <c r="Q30" s="22" t="n"/>
-      <c r="R30" s="23" t="n"/>
     </row>
     <row r="31" ht="45" customHeight="1" s="9">
+      <c r="A31" s="21" t="inlineStr">
+        <is>
+          <t>УРОЛОГИЧЕСКОЕ</t>
+        </is>
+      </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>хирургические (хирургия)</t>
+          <t>урологические</t>
         </is>
       </c>
       <c r="C31" s="22" t="n">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="D31" s="22" t="n">
-        <v>42</v>
+        <v>1565</v>
       </c>
       <c r="E31" s="22" t="n">
-        <v>21</v>
+        <v>5.53</v>
       </c>
       <c r="F31" s="22" t="n">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="G31" s="22" t="n">
-        <v>100</v>
+        <v>83.39</v>
       </c>
       <c r="H31" s="22" t="n">
-        <v>21</v>
+        <v>5.94</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="22" t="n">
-        <v>50</v>
+        <v>1.41</v>
       </c>
       <c r="K31" s="22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L31" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>50</v>
+        <v>1.41</v>
       </c>
       <c r="N31" s="22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O31" s="22" t="n"/>
       <c r="P31" s="22" t="n"/>
       <c r="Q31" s="22" t="n"/>
       <c r="R31" s="23" t="n"/>
     </row>
-    <row r="32" ht="20" customHeight="1" s="9">
-      <c r="A32" s="24" t="inlineStr">
-        <is>
-          <t>итого по отделению</t>
-        </is>
-      </c>
-      <c r="B32" s="25" t="n"/>
+    <row r="32" ht="45" customHeight="1" s="9">
+      <c r="A32" s="21" t="inlineStr">
+        <is>
+          <t>СОСУДИСТ.ХИР.И КАРД.</t>
+        </is>
+      </c>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>сосудистой хирургии</t>
+        </is>
+      </c>
       <c r="C32" s="22" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D32" s="22" t="n">
-        <v>738</v>
+        <v>933</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>13.67</v>
+        <v>10.85</v>
       </c>
       <c r="F32" s="22" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>94.44</v>
+        <v>39.53</v>
       </c>
       <c r="H32" s="22" t="n">
-        <v>14.06</v>
+        <v>17.5</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J32" s="22" t="n">
-        <v>9.26</v>
+        <v>2.33</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>5.85</v>
+        <v>20.5</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>9.26</v>
+        <v>2.33</v>
       </c>
       <c r="N32" s="22" t="n">
-        <v>5.85</v>
+        <v>20.5</v>
       </c>
       <c r="O32" s="22" t="n"/>
       <c r="P32" s="22" t="n"/>
       <c r="Q32" s="22" t="n"/>
+      <c r="R32" s="23" t="n"/>
     </row>
     <row r="33" ht="45" customHeight="1" s="9">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>АРО N3 (ЛДО)</t>
+          <t>ОФТАЛЬМОЛОГИЧЕСКОЕ</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>хирургические (хирургия)</t>
+          <t>офтальмологические</t>
         </is>
       </c>
       <c r="C33" s="22" t="n">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="D33" s="22" t="n">
-        <v>62</v>
+        <v>1342</v>
       </c>
       <c r="E33" s="22" t="n">
-        <v>4.77</v>
+        <v>6.1</v>
       </c>
       <c r="F33" s="22" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="G33" s="22" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H33" s="22" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="I33" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="J33" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="K33" s="22" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L33" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="M33" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="N33" s="22" t="n">
-        <v>4.77</v>
-      </c>
+        <v>9.109999999999999</v>
+      </c>
+      <c r="I33" s="22" t="n"/>
+      <c r="J33" s="22" t="n"/>
+      <c r="K33" s="22" t="n"/>
+      <c r="L33" s="22" t="n"/>
+      <c r="M33" s="22" t="n"/>
+      <c r="N33" s="22" t="n"/>
       <c r="O33" s="22" t="n"/>
       <c r="P33" s="22" t="n"/>
       <c r="Q33" s="22" t="n"/>
@@ -1950,49 +1945,49 @@
     <row r="34" ht="45" customHeight="1" s="9">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>ТОКСИКОЛОГИЯ</t>
+          <t>АРО N3 (ЛДО)</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>терапевтические</t>
+          <t>хирургические (хирургия)</t>
         </is>
       </c>
       <c r="C34" s="22" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D34" s="22" t="n">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="E34" s="22" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G34" s="22" t="n">
         <v>100</v>
       </c>
       <c r="H34" s="22" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J34" s="22" t="n">
-        <v>14.58</v>
+        <v>100</v>
       </c>
       <c r="K34" s="22" t="n">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>14.58</v>
+        <v>100</v>
       </c>
       <c r="N34" s="22" t="n">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="O34" s="22" t="n"/>
       <c r="P34" s="22" t="n"/>
@@ -2002,38 +1997,50 @@
     <row r="35" ht="45" customHeight="1" s="9">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>ОТОЛАРИНГОЛОГИЧЕСКОЕ</t>
+          <t>НЕВРОЛОГИЯ N1</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>оториноларингологические</t>
+          <t>неврологические</t>
         </is>
       </c>
       <c r="C35" s="22" t="n">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="D35" s="22" t="n">
-        <v>368</v>
+        <v>3088</v>
       </c>
       <c r="E35" s="22" t="n">
-        <v>5.26</v>
+        <v>15.84</v>
       </c>
       <c r="F35" s="22" t="n">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="G35" s="22" t="n">
-        <v>57.14</v>
+        <v>100</v>
       </c>
       <c r="H35" s="22" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="I35" s="22" t="n"/>
-      <c r="J35" s="22" t="n"/>
-      <c r="K35" s="22" t="n"/>
-      <c r="L35" s="22" t="n"/>
-      <c r="M35" s="22" t="n"/>
-      <c r="N35" s="22" t="n"/>
+        <v>15.84</v>
+      </c>
+      <c r="I35" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J35" s="22" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="K35" s="22" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="L35" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="M35" s="22" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="N35" s="22" t="n">
+        <v>16.31</v>
+      </c>
       <c r="O35" s="22" t="n"/>
       <c r="P35" s="22" t="n"/>
       <c r="Q35" s="22" t="n"/>
@@ -2042,49 +2049,49 @@
     <row r="36" ht="45" customHeight="1" s="9">
       <c r="A36" s="20" t="inlineStr">
         <is>
-          <t>ПУЛЬМОНОЛОГИЯ</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>пульмонологические</t>
+          <t>травматологические</t>
         </is>
       </c>
       <c r="C36" s="22" t="n">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="D36" s="22" t="n">
-        <v>480</v>
+        <v>1667</v>
       </c>
       <c r="E36" s="22" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="F36" s="22" t="n">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="G36" s="22" t="n">
-        <v>91.84</v>
+        <v>98.62</v>
       </c>
       <c r="H36" s="22" t="n">
-        <v>10.47</v>
+        <v>11.55</v>
       </c>
       <c r="I36" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" s="22" t="n">
-        <v>8.16</v>
+        <v>2.07</v>
       </c>
       <c r="K36" s="22" t="n">
-        <v>11</v>
+        <v>22.67</v>
       </c>
       <c r="L36" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" s="22" t="n">
-        <v>8.16</v>
+        <v>2.07</v>
       </c>
       <c r="N36" s="22" t="n">
-        <v>11</v>
+        <v>22.67</v>
       </c>
       <c r="O36" s="22" t="n"/>
       <c r="P36" s="22" t="n"/>
@@ -2094,45 +2101,33 @@
     <row r="37" ht="45" customHeight="1" s="9">
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>терапевтические</t>
+          <t>ортопедические</t>
         </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D37" s="22" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="E37" s="22" t="n">
-        <v>5.67</v>
+        <v>5.98</v>
       </c>
       <c r="F37" s="22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>100</v>
+        <v>28.57</v>
       </c>
       <c r="H37" s="22" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="I37" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" s="22" t="n">
-        <v>44.44</v>
-      </c>
-      <c r="K37" s="22" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L37" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M37" s="22" t="n">
-        <v>44.44</v>
-      </c>
-      <c r="N37" s="22" t="n">
-        <v>4.25</v>
-      </c>
+        <v>8.08</v>
+      </c>
+      <c r="I37" s="22" t="n"/>
+      <c r="J37" s="22" t="n"/>
+      <c r="K37" s="22" t="n"/>
+      <c r="L37" s="22" t="n"/>
+      <c r="M37" s="22" t="n"/>
+      <c r="N37" s="22" t="n"/>
       <c r="O37" s="22" t="n"/>
       <c r="P37" s="22" t="n"/>
       <c r="Q37" s="22" t="n"/>
@@ -2146,91 +2141,91 @@
       </c>
       <c r="B38" s="25" t="n"/>
       <c r="C38" s="22" t="n">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="D38" s="22" t="n">
-        <v>531</v>
+        <v>1918</v>
       </c>
       <c r="E38" s="22" t="n">
-        <v>9.16</v>
+        <v>10.26</v>
       </c>
       <c r="F38" s="22" t="n">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="G38" s="22" t="n">
-        <v>93.09999999999999</v>
+        <v>82.89</v>
       </c>
       <c r="H38" s="22" t="n">
-        <v>9.67</v>
+        <v>11.28</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J38" s="22" t="n">
-        <v>13.79</v>
+        <v>1.6</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>1.91</v>
+        <v>7.56</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>13.79</v>
+        <v>1.6</v>
       </c>
       <c r="N38" s="22" t="n">
-        <v>1.91</v>
+        <v>7.56</v>
       </c>
       <c r="O38" s="22" t="n"/>
       <c r="P38" s="22" t="n"/>
       <c r="Q38" s="22" t="n"/>
     </row>
     <row r="39" ht="45" customHeight="1" s="9">
-      <c r="A39" s="21" t="inlineStr">
-        <is>
-          <t>КАРДИОЛОГИЧЕСКОЕ</t>
+      <c r="A39" s="20" t="inlineStr">
+        <is>
+          <t>ПУЛЬМОНОЛОГИЯ</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>кардиологические для взрослых</t>
+          <t>пульмонологические</t>
         </is>
       </c>
       <c r="C39" s="22" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D39" s="22" t="n">
-        <v>283</v>
+        <v>663</v>
       </c>
       <c r="E39" s="22" t="n">
-        <v>8.32</v>
+        <v>9.08</v>
       </c>
       <c r="F39" s="22" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G39" s="22" t="n">
-        <v>85.29000000000001</v>
+        <v>90.41</v>
       </c>
       <c r="H39" s="22" t="n">
-        <v>8.59</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" s="22" t="n">
-        <v>8.82</v>
+        <v>6.85</v>
       </c>
       <c r="K39" s="22" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>5.88</v>
+        <v>6.85</v>
       </c>
       <c r="N39" s="22" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O39" s="22" t="n"/>
       <c r="P39" s="22" t="n"/>
@@ -2238,185 +2233,197 @@
       <c r="R39" s="23" t="n"/>
     </row>
     <row r="40" ht="45" customHeight="1" s="9">
-      <c r="A40" s="20" t="inlineStr">
-        <is>
-          <t>ТРАВМА N1</t>
-        </is>
-      </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>ортопедические</t>
+          <t>терапевтические</t>
         </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D40" s="22" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>4.83</v>
+        <v>8.6</v>
       </c>
       <c r="F40" s="22" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>29.17</v>
+        <v>100</v>
       </c>
       <c r="H40" s="22" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="I40" s="22" t="n"/>
-      <c r="J40" s="22" t="n"/>
-      <c r="K40" s="22" t="n"/>
-      <c r="L40" s="22" t="n"/>
-      <c r="M40" s="22" t="n"/>
-      <c r="N40" s="22" t="n"/>
+        <v>8.6</v>
+      </c>
+      <c r="I40" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" s="22" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="K40" s="22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L40" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" s="22" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>8.4</v>
+      </c>
       <c r="O40" s="22" t="n"/>
       <c r="P40" s="22" t="n"/>
       <c r="Q40" s="22" t="n"/>
       <c r="R40" s="23" t="n"/>
     </row>
-    <row r="41" ht="45" customHeight="1" s="9">
-      <c r="B41" s="21" t="inlineStr">
-        <is>
-          <t>травматологические</t>
-        </is>
-      </c>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="24" t="inlineStr">
+        <is>
+          <t>итого по отделению</t>
+        </is>
+      </c>
+      <c r="B41" s="25" t="n"/>
       <c r="C41" s="22" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D41" s="22" t="n">
-        <v>650</v>
+        <v>792</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>9.15</v>
+        <v>9</v>
       </c>
       <c r="F41" s="22" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G41" s="22" t="n">
-        <v>98.59</v>
+        <v>92.05</v>
       </c>
       <c r="H41" s="22" t="n">
-        <v>9.26</v>
+        <v>9.42</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J41" s="22" t="n">
-        <v>2.82</v>
+        <v>11.36</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>2.82</v>
+        <v>11.36</v>
       </c>
       <c r="N41" s="22" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O41" s="22" t="n"/>
       <c r="P41" s="22" t="n"/>
       <c r="Q41" s="22" t="n"/>
-      <c r="R41" s="23" t="n"/>
-    </row>
-    <row r="42" ht="20" customHeight="1" s="9">
-      <c r="A42" s="24" t="inlineStr">
-        <is>
-          <t>итого по отделению</t>
-        </is>
-      </c>
-      <c r="B42" s="25" t="n"/>
+    </row>
+    <row r="42" ht="45" customHeight="1" s="9">
+      <c r="A42" s="21" t="inlineStr">
+        <is>
+          <t>ТОКСИКОЛОГИЯ</t>
+        </is>
+      </c>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>терапевтические</t>
+        </is>
+      </c>
       <c r="C42" s="22" t="n">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D42" s="22" t="n">
-        <v>766</v>
+        <v>264</v>
       </c>
       <c r="E42" s="22" t="n">
-        <v>8.06</v>
+        <v>4.55</v>
       </c>
       <c r="F42" s="22" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G42" s="22" t="n">
-        <v>81.05</v>
+        <v>100</v>
       </c>
       <c r="H42" s="22" t="n">
-        <v>9.08</v>
+        <v>4.55</v>
       </c>
       <c r="I42" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" s="22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K42" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="22" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="K42" s="22" t="n">
-        <v>1</v>
-      </c>
       <c r="L42" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" s="22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N42" s="22" t="n">
         <v>2</v>
-      </c>
-      <c r="M42" s="22" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N42" s="22" t="n">
-        <v>1</v>
       </c>
       <c r="O42" s="22" t="n"/>
       <c r="P42" s="22" t="n"/>
       <c r="Q42" s="22" t="n"/>
+      <c r="R42" s="23" t="n"/>
     </row>
     <row r="43" ht="45" customHeight="1" s="9">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>НЕВРОЛОГИЯ N1</t>
+          <t>КАРДИОЛОГИЧЕСКОЕ</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>неврологические</t>
+          <t>кардиологические для взрослых</t>
         </is>
       </c>
       <c r="C43" s="22" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="22" t="n">
-        <v>1168</v>
+        <v>806</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>12.56</v>
+        <v>8.76</v>
       </c>
       <c r="F43" s="22" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>100</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H43" s="22" t="n">
-        <v>12.56</v>
+        <v>8.82</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J43" s="22" t="n">
-        <v>25.81</v>
+        <v>11.96</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>12.58</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>25.81</v>
+        <v>10.87</v>
       </c>
       <c r="N43" s="22" t="n">
-        <v>12.58</v>
+        <v>8</v>
       </c>
       <c r="O43" s="22" t="n"/>
       <c r="P43" s="22" t="n"/>
@@ -2424,103 +2431,155 @@
       <c r="R43" s="23" t="n"/>
     </row>
     <row r="44" ht="45" customHeight="1" s="9">
-      <c r="A44" s="20" t="inlineStr">
-        <is>
-          <t>НЕВРОЛОГИЯ N3</t>
+      <c r="A44" s="21" t="inlineStr">
+        <is>
+          <t>ОТОЛАРИНГОЛОГИЧЕСКОЕ</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>неврологические</t>
+          <t>оториноларингологические</t>
         </is>
       </c>
       <c r="C44" s="22" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D44" s="22" t="n">
-        <v>18</v>
+        <v>592</v>
       </c>
       <c r="E44" s="22" t="n">
-        <v>3.6</v>
+        <v>5.53</v>
       </c>
       <c r="F44" s="22" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G44" s="22" t="n">
-        <v>100</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="H44" s="22" t="n">
-        <v>3.6</v>
+        <v>6.07</v>
       </c>
       <c r="I44" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" s="22" t="n">
-        <v>80</v>
+        <v>0.93</v>
       </c>
       <c r="K44" s="22" t="n">
-        <v>4.25</v>
+        <v>1</v>
       </c>
       <c r="L44" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M44" s="22" t="n">
-        <v>80</v>
+        <v>0.93</v>
       </c>
       <c r="N44" s="22" t="n">
-        <v>4.25</v>
+        <v>1</v>
       </c>
       <c r="O44" s="22" t="n"/>
       <c r="P44" s="22" t="n"/>
       <c r="Q44" s="22" t="n"/>
       <c r="R44" s="23" t="n"/>
     </row>
-    <row r="45" ht="20" customHeight="1" s="9">
-      <c r="A45" s="26" t="inlineStr">
+    <row r="45" ht="45" customHeight="1" s="9">
+      <c r="A45" s="20" t="inlineStr">
+        <is>
+          <t>НЕВРОЛОГИЯ N3</t>
+        </is>
+      </c>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>неврологические</t>
+        </is>
+      </c>
+      <c r="C45" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E45" s="22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F45" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" s="22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I45" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="K45" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" s="22" t="n"/>
+      <c r="P45" s="22" t="n"/>
+      <c r="Q45" s="22" t="n"/>
+      <c r="R45" s="23" t="n"/>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="26" t="inlineStr">
         <is>
           <t>ВСЕГО ПО СТАЦИОНАРУ</t>
         </is>
       </c>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="28" t="n">
-        <v>1520</v>
-      </c>
-      <c r="D45" s="28" t="n">
-        <v>11189</v>
-      </c>
-      <c r="E45" s="28" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F45" s="28" t="n">
-        <v>1061</v>
-      </c>
-      <c r="G45" s="28" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="H45" s="28" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="I45" s="28" t="n">
-        <v>92</v>
-      </c>
-      <c r="J45" s="28" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K45" s="28" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="L45" s="28" t="n">
-        <v>90</v>
-      </c>
-      <c r="M45" s="28" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="N45" s="28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O45" s="28" t="n"/>
-      <c r="P45" s="28" t="n"/>
-      <c r="Q45" s="28" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="28" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D46" s="28" t="n">
+        <v>23250</v>
+      </c>
+      <c r="E46" s="28" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F46" s="28" t="n">
+        <v>2078</v>
+      </c>
+      <c r="G46" s="28" t="n">
+        <v>74.48</v>
+      </c>
+      <c r="H46" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="I46" s="28" t="n">
+        <v>135</v>
+      </c>
+      <c r="J46" s="28" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="K46" s="28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L46" s="28" t="n">
+        <v>133</v>
+      </c>
+      <c r="M46" s="28" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="N46" s="28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O46" s="28" t="n"/>
+      <c r="P46" s="28" t="n"/>
+      <c r="Q46" s="28" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
